--- a/SchedulingData/dynamic9/pso/scheduling2_16.xlsx
+++ b/SchedulingData/dynamic9/pso/scheduling2_16.xlsx
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>224</v>
+        <v>249.7</v>
       </c>
       <c r="D2" t="n">
-        <v>285.96</v>
+        <v>283.14</v>
       </c>
       <c r="E2" t="n">
-        <v>13.044</v>
+        <v>11.876</v>
       </c>
     </row>
     <row r="3">
@@ -485,169 +485,169 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>225.38</v>
+        <v>283.14</v>
       </c>
       <c r="D3" t="n">
-        <v>278.76</v>
+        <v>325.94</v>
       </c>
       <c r="E3" t="n">
-        <v>14.284</v>
+        <v>9.715999999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>208.62</v>
+        <v>242.74</v>
       </c>
       <c r="D4" t="n">
-        <v>277.82</v>
+        <v>302.64</v>
       </c>
       <c r="E4" t="n">
-        <v>14.208</v>
+        <v>12.436</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>278.76</v>
+        <v>222.1</v>
       </c>
       <c r="D5" t="n">
-        <v>350.86</v>
+        <v>269.8</v>
       </c>
       <c r="E5" t="n">
-        <v>9.183999999999999</v>
+        <v>11.24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>235.16</v>
+        <v>206.8</v>
       </c>
       <c r="D6" t="n">
-        <v>287.16</v>
+        <v>262.76</v>
       </c>
       <c r="E6" t="n">
-        <v>11.504</v>
+        <v>12.724</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>212.36</v>
+        <v>238.42</v>
       </c>
       <c r="D7" t="n">
-        <v>280.66</v>
+        <v>286.8</v>
       </c>
       <c r="E7" t="n">
-        <v>13.564</v>
+        <v>13.44</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>280.66</v>
+        <v>286.8</v>
       </c>
       <c r="D8" t="n">
-        <v>335.16</v>
+        <v>332.88</v>
       </c>
       <c r="E8" t="n">
-        <v>9.244</v>
+        <v>10.472</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>248.48</v>
+        <v>269.8</v>
       </c>
       <c r="D9" t="n">
-        <v>307.14</v>
+        <v>314.7</v>
       </c>
       <c r="E9" t="n">
-        <v>10.956</v>
+        <v>8.380000000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>285.96</v>
+        <v>332.88</v>
       </c>
       <c r="D10" t="n">
-        <v>325.86</v>
+        <v>393.2</v>
       </c>
       <c r="E10" t="n">
-        <v>10.184</v>
+        <v>7.56</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>307.14</v>
+        <v>302.64</v>
       </c>
       <c r="D11" t="n">
-        <v>372.56</v>
+        <v>351.3</v>
       </c>
       <c r="E11" t="n">
-        <v>8.044</v>
+        <v>9.68</v>
       </c>
     </row>
     <row r="12">
@@ -656,36 +656,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>287.16</v>
+        <v>235.42</v>
       </c>
       <c r="D12" t="n">
-        <v>343.98</v>
+        <v>299.34</v>
       </c>
       <c r="E12" t="n">
-        <v>8.912000000000001</v>
+        <v>12.196</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>343.98</v>
+        <v>262.76</v>
       </c>
       <c r="D13" t="n">
-        <v>402.22</v>
+        <v>317.26</v>
       </c>
       <c r="E13" t="n">
-        <v>6.208</v>
+        <v>8.404</v>
       </c>
     </row>
     <row r="14">
@@ -694,74 +694,74 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>350.86</v>
+        <v>325.94</v>
       </c>
       <c r="D14" t="n">
-        <v>393.66</v>
+        <v>397.44</v>
       </c>
       <c r="E14" t="n">
-        <v>7.024</v>
+        <v>6.656</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>325.86</v>
+        <v>299.34</v>
       </c>
       <c r="D15" t="n">
-        <v>375.14</v>
+        <v>343</v>
       </c>
       <c r="E15" t="n">
-        <v>7.376</v>
+        <v>9.460000000000001</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>277.82</v>
+        <v>314.7</v>
       </c>
       <c r="D16" t="n">
-        <v>328.48</v>
+        <v>366.62</v>
       </c>
       <c r="E16" t="n">
-        <v>10.272</v>
+        <v>5.788</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>328.48</v>
+        <v>343</v>
       </c>
       <c r="D17" t="n">
-        <v>364.56</v>
+        <v>386.5</v>
       </c>
       <c r="E17" t="n">
-        <v>7.304</v>
+        <v>7.22</v>
       </c>
     </row>
     <row r="18">
@@ -770,17 +770,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>335.16</v>
+        <v>351.3</v>
       </c>
       <c r="D18" t="n">
-        <v>388.52</v>
+        <v>385.78</v>
       </c>
       <c r="E18" t="n">
-        <v>6.508</v>
+        <v>6.872</v>
       </c>
     </row>
   </sheetData>
